--- a/biology/Zoologie/Cosoryx/Cosoryx.xlsx
+++ b/biology/Zoologie/Cosoryx/Cosoryx.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cosoryx est un genre éteint d’herbivores terrestres de la famille des Antilocapridae,  vivant en Amérique du Nord du Miocène, entre −13 millions d’années et −5 millions d’années.
 </t>
@@ -511,7 +523,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Cosoryx cerroensis,
 Cosoryx furcatus,
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cosoryx étaient des petites antilocapres à cornes fourchues.
 </t>
@@ -574,7 +590,9 @@
           <t>Occurrence</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Au total, une centaine de spécimens fossiles ont été découverts dans l'Ouest des États-Unis, au Canada[réf. nécessaire] et au Mexique. 
 </t>
